--- a/rgb_data.xlsx
+++ b/rgb_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\MAV_python_testbed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3EA7D1-C1BD-47B1-81A3-BE9FBC20ACDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57247832-CF25-49EB-A151-3AC30071E010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11921" yWindow="0" windowWidth="12221" windowHeight="14400" xr2:uid="{1AC5E46B-9B15-4E5B-A86C-72CAD00FAEE1}"/>
+    <workbookView xWindow="3619" yWindow="3030" windowWidth="18031" windowHeight="10356" xr2:uid="{1AC5E46B-9B15-4E5B-A86C-72CAD00FAEE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D410DDEB-0DCE-439A-ADB6-CA4A80E0DCDF}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -923,6 +923,818 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>150</v>
+      </c>
+      <c r="B36">
+        <v>206</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>86</v>
+      </c>
+      <c r="B37">
+        <v>161</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>86</v>
+      </c>
+      <c r="B38">
+        <v>137</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>86</v>
+      </c>
+      <c r="B39">
+        <v>137</v>
+      </c>
+      <c r="C39">
+        <v>58</v>
+      </c>
+      <c r="D39">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>98</v>
+      </c>
+      <c r="B40">
+        <v>137</v>
+      </c>
+      <c r="C40">
+        <v>58</v>
+      </c>
+      <c r="D40">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>98</v>
+      </c>
+      <c r="B41">
+        <v>87</v>
+      </c>
+      <c r="C41">
+        <v>58</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>122</v>
+      </c>
+      <c r="B42">
+        <v>117</v>
+      </c>
+      <c r="C42">
+        <v>194</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>122</v>
+      </c>
+      <c r="B43">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>194</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>169</v>
+      </c>
+      <c r="B44">
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>194</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>71</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>38</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>101</v>
+      </c>
+      <c r="B47">
+        <v>38</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>149</v>
+      </c>
+      <c r="B48">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>114</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>149</v>
+      </c>
+      <c r="B49">
+        <v>210</v>
+      </c>
+      <c r="C49">
+        <v>114</v>
+      </c>
+      <c r="D49">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>149</v>
+      </c>
+      <c r="B50">
+        <v>226</v>
+      </c>
+      <c r="C50">
+        <v>156</v>
+      </c>
+      <c r="D50">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>106</v>
+      </c>
+      <c r="B51">
+        <v>172</v>
+      </c>
+      <c r="C51">
+        <v>173</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>107</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>111</v>
+      </c>
+      <c r="B53">
+        <v>104</v>
+      </c>
+      <c r="C53">
+        <v>199</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>94</v>
+      </c>
+      <c r="B54">
+        <v>220</v>
+      </c>
+      <c r="C54">
+        <v>70</v>
+      </c>
+      <c r="D54">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>18</v>
+      </c>
+      <c r="B55">
+        <v>46</v>
+      </c>
+      <c r="C55">
+        <v>38</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>38</v>
+      </c>
+      <c r="B56">
+        <v>48</v>
+      </c>
+      <c r="C56">
+        <v>45</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>39</v>
+      </c>
+      <c r="B57">
+        <v>48</v>
+      </c>
+      <c r="C57">
+        <v>38</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>34</v>
+      </c>
+      <c r="B58">
+        <v>51</v>
+      </c>
+      <c r="C58">
+        <v>32</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>48</v>
+      </c>
+      <c r="B59">
+        <v>97</v>
+      </c>
+      <c r="C59">
+        <v>44</v>
+      </c>
+      <c r="D59">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>99</v>
+      </c>
+      <c r="B60">
+        <v>99</v>
+      </c>
+      <c r="C60">
+        <v>99</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61">
+        <v>55</v>
+      </c>
+      <c r="C61">
+        <v>55</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>34</v>
+      </c>
+      <c r="B62">
+        <v>34</v>
+      </c>
+      <c r="C62">
+        <v>34</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>150</v>
+      </c>
+      <c r="B63">
+        <v>150</v>
+      </c>
+      <c r="C63">
+        <v>150</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>200</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+      <c r="C64">
+        <v>200</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>169</v>
+      </c>
+      <c r="B65">
+        <v>167</v>
+      </c>
+      <c r="C65">
+        <v>93</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>212</v>
+      </c>
+      <c r="B66">
+        <v>206</v>
+      </c>
+      <c r="C66">
+        <v>31</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>212</v>
+      </c>
+      <c r="B67">
+        <v>206</v>
+      </c>
+      <c r="C67">
+        <v>118</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>235</v>
+      </c>
+      <c r="B68">
+        <v>227</v>
+      </c>
+      <c r="C68">
+        <v>180</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>149</v>
+      </c>
+      <c r="B69">
+        <v>141</v>
+      </c>
+      <c r="C69">
+        <v>147</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>167</v>
+      </c>
+      <c r="B70">
+        <v>148</v>
+      </c>
+      <c r="C70">
+        <v>130</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>116</v>
+      </c>
+      <c r="B71">
+        <v>76</v>
+      </c>
+      <c r="C71">
+        <v>58</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>162</v>
+      </c>
+      <c r="B72">
+        <v>160</v>
+      </c>
+      <c r="C72">
+        <v>104</v>
+      </c>
+      <c r="D72">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>64</v>
+      </c>
+      <c r="B73">
+        <v>67</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>161</v>
+      </c>
+      <c r="B74">
+        <v>154</v>
+      </c>
+      <c r="C74">
+        <v>114</v>
+      </c>
+      <c r="D74">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>169</v>
+      </c>
+      <c r="B75">
+        <v>162</v>
+      </c>
+      <c r="C75">
+        <v>132</v>
+      </c>
+      <c r="D75">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>144</v>
+      </c>
+      <c r="B76">
+        <v>146</v>
+      </c>
+      <c r="C76">
+        <v>79</v>
+      </c>
+      <c r="D76">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>220</v>
+      </c>
+      <c r="B77">
+        <v>211</v>
+      </c>
+      <c r="C77">
+        <v>141</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>130</v>
+      </c>
+      <c r="B78">
+        <v>132</v>
+      </c>
+      <c r="C78">
+        <v>58</v>
+      </c>
+      <c r="D78">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>141</v>
+      </c>
+      <c r="B79">
+        <v>110</v>
+      </c>
+      <c r="C79">
+        <v>108</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>66</v>
+      </c>
+      <c r="C80">
+        <v>83</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>93</v>
+      </c>
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81">
+        <v>84</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>209</v>
+      </c>
+      <c r="B82">
+        <v>178</v>
+      </c>
+      <c r="C82">
+        <v>140</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>86</v>
+      </c>
+      <c r="B83">
+        <v>62</v>
+      </c>
+      <c r="C83">
+        <v>31</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>125</v>
+      </c>
+      <c r="B84">
+        <v>108</v>
+      </c>
+      <c r="C84">
+        <v>108</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>130</v>
+      </c>
+      <c r="B85">
+        <v>127</v>
+      </c>
+      <c r="C85">
+        <v>141</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>113</v>
+      </c>
+      <c r="B86">
+        <v>91</v>
+      </c>
+      <c r="C86">
+        <v>61</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>132</v>
+      </c>
+      <c r="B87">
+        <v>105</v>
+      </c>
+      <c r="C87">
+        <v>97</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>71</v>
+      </c>
+      <c r="B88">
+        <v>67</v>
+      </c>
+      <c r="C88">
+        <v>61</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>167</v>
+      </c>
+      <c r="B89">
+        <v>186</v>
+      </c>
+      <c r="C89">
+        <v>33</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>170</v>
+      </c>
+      <c r="B90">
+        <v>184</v>
+      </c>
+      <c r="C90">
+        <v>75</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>161</v>
+      </c>
+      <c r="B91">
+        <v>152</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>214</v>
+      </c>
+      <c r="B92">
+        <v>202</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>219</v>
+      </c>
+      <c r="B93">
+        <v>212</v>
+      </c>
+      <c r="C93">
+        <v>91</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
